--- a/web/excel/order2/零担下单批量导入模板.xlsx
+++ b/web/excel/order2/零担下单批量导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>1:请严格按照模板要求</t>
   </si>
@@ -37,13 +37,10 @@
     <t>货品名称</t>
   </si>
   <si>
-    <t>温度(℃)</t>
-  </si>
-  <si>
-    <t>件数(冷冻)</t>
-  </si>
-  <si>
-    <t>件数（非冷冻）</t>
+    <t>车型</t>
+  </si>
+  <si>
+    <t>件数</t>
   </si>
   <si>
     <t>重量(kg)</t>
@@ -103,7 +100,7 @@
     <t>蔬菜</t>
   </si>
   <si>
-    <t>冷冻</t>
+    <t>平板</t>
   </si>
   <si>
     <t>上海市</t>
@@ -139,7 +136,7 @@
     <t>瓜果</t>
   </si>
   <si>
-    <t>冷冻/冷藏</t>
+    <t>厢车</t>
   </si>
   <si>
     <t>王五</t>
@@ -154,10 +151,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
@@ -200,12 +197,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,31 +264,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,22 +304,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -312,32 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,17 +543,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,40 +618,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,21 +640,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -651,145 +648,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X$1:X$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1171,24 +1168,23 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="10.25" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="13.25" customWidth="1"/>
-    <col min="19" max="19" width="24.375" customWidth="1"/>
-    <col min="20" max="20" width="10.625" customWidth="1"/>
-    <col min="21" max="21" width="15.25" customWidth="1"/>
-    <col min="22" max="22" width="17.625" customWidth="1"/>
-    <col min="23" max="23" width="20.5" customWidth="1"/>
-    <col min="24" max="24" width="13.625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="18" max="18" width="24.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" customWidth="1"/>
+    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="17.625" customWidth="1"/>
+    <col min="22" max="22" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="13.625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1209,7 +1205,7 @@
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:25">
+    <row r="4" s="1" customFormat="1" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1228,22 +1224,22 @@
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -1258,10 +1254,10 @@
       <c r="P4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="S4" s="6" t="s">
@@ -1276,17 +1272,14 @@
       <c r="V4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1295,24 +1288,27 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -1333,26 +1329,23 @@
       <c r="R5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>15289545623</v>
+      </c>
+      <c r="U5" t="s">
         <v>38</v>
       </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5">
-        <v>15289545623</v>
-      </c>
       <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="4">
+        <v>38</v>
+      </c>
+      <c r="W5" s="4">
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1361,30 +1354,30 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>200</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
+      <c r="G6" s="3">
+        <v>1999.99</v>
       </c>
       <c r="H6" s="3">
-        <v>1999.99</v>
-      </c>
-      <c r="I6" s="3">
         <v>3</v>
       </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="10" t="s">
@@ -1405,22 +1398,19 @@
       <c r="R6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6">
+        <v>18695463512</v>
+      </c>
+      <c r="U6" t="s">
         <v>42</v>
       </c>
-      <c r="U6">
-        <v>18695463512</v>
-      </c>
       <c r="V6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" s="4">
+        <v>42</v>
+      </c>
+      <c r="W6" s="4">
         <v>333.33</v>
       </c>
     </row>
@@ -1431,32 +1421,28 @@
       <c r="C12" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576">
+  <dataValidations count="6">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
       <formula1>0.01</formula1>
       <formula2>999999999.99</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+      <formula1>"平板,厢车,高栏,槽罐"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3 B5:B1048576">
       <formula1>36526</formula1>
       <formula2>109920</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
-      <formula1>"冷冻,冷藏,常温,恒温,冷冻/冷藏"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576">
-      <formula1>0</formula1>
-      <formula2>99999999999999</formula2>
-    </dataValidation>
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U3 U5:U1048576 V5:V1048576">
+      <formula1>"需要,不需要"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576">
       <formula1>0.1</formula1>
       <formula2>999999999.9</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V3 V5:V1048576 W5:W1048576">
-      <formula1>"需要,不需要"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
